--- a/python/altrios/lifts/single_track_input/layout.xlsx
+++ b/python/altrios/lifts/single_track_input/layout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianqiantong/PycharmProjects/altrios-private/altrios/python/altrios/lifts/single_track_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31CB2FEE-C5FA-4840-A30E-B4D834654D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4F3668-89DD-1844-9784-0B1A8A5161B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,22 +406,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6382B0-CC3E-4A48-B9DD-BF4A5E344F0A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" style="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,324 +441,1424 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>120</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>130</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>150</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>160</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>170</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>180</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>190</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>200</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>210</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>220</v>
       </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>230</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>240</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>250</v>
       </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>260</v>
       </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>270</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>280</v>
       </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>290</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>300</v>
       </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
         <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>300</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>310</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>320</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>330</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>340</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>350</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>360</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>370</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>380</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>390</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>400</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>410</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>420</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>430</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>440</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>450</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>460</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>470</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>480</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>490</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>500</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>510</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>520</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>530</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>540</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>550</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>560</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>570</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>580</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>590</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>600</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>610</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>620</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>630</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>640</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>650</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>660</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>670</v>
+      </c>
+      <c r="B69" s="1">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>680</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>690</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>700</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
